--- a/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
+++ b/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
@@ -530,6 +530,84 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -540,84 +618,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,7 +928,7 @@
   <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AL25"/>
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -973,7 +973,7 @@
     <col min="38" max="38" width="19.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1002,91 +1002,91 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
     </row>
     <row r="2" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="10"/>
@@ -1106,35 +1106,35 @@
     <row r="4" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="10"/>
@@ -1192,87 +1192,87 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -1280,131 +1280,131 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -1412,43 +1412,43 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -1456,43 +1456,43 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -1500,43 +1500,43 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -1544,43 +1544,43 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -1588,43 +1588,43 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -1632,43 +1632,43 @@
       <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -1676,41 +1676,41 @@
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -1718,39 +1718,39 @@
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1758,158 +1758,158 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20" t="s">
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20" t="s">
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20" t="s">
+      <c r="V19" s="36"/>
+      <c r="W19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20" t="s">
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20" t="s">
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20" t="s">
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
     </row>
     <row r="21" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20" t="s">
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
     </row>
     <row r="22" spans="1:38" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1952,13 +1952,13 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1986,95 +1986,95 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="22" t="s">
+      <c r="AG23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
     </row>
     <row r="24" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23" t="s">
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23" t="s">
+      <c r="V24" s="35"/>
+      <c r="W24" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="X24" s="23"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="Z24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23" t="s">
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23" t="s">
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23" t="s">
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
       <c r="AL24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="24" t="s">
         <v>59</v>
       </c>
@@ -2093,17 +2093,17 @@
       <c r="O25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25" t="s">
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="25"/>
+      <c r="V25" s="23"/>
       <c r="W25" s="24" t="s">
         <v>65</v>
       </c>
@@ -2111,17 +2111,17 @@
       <c r="Y25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="25" t="s">
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
       <c r="AG25" s="24" t="s">
         <v>67</v>
       </c>
@@ -2136,48 +2136,48 @@
       </c>
     </row>
     <row r="26" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="V26" s="30"/>
-      <c r="W26" s="31" t="s">
+      <c r="V26" s="22"/>
+      <c r="W26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="30" t="s">
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30" t="s">
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -2232,11 +2232,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2266,19 +2266,19 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2289,16 +2289,16 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
@@ -2310,48 +2310,48 @@
       <c r="AL29" s="2"/>
     </row>
     <row r="30" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="32" t="s">
+      <c r="AI30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
     </row>
     <row r="31" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -2360,24 +2360,24 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2387,19 +2387,19 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="35" t="s">
+      <c r="AD31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="35" t="s">
+      <c r="AI31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
     </row>
     <row r="32" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -2414,14 +2414,14 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -2431,15 +2431,15 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
     </row>
     <row r="33" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2448,20 +2448,20 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -2471,15 +2471,15 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="10"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
       <c r="AH33" s="2"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
     </row>
     <row r="34" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -2488,11 +2488,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2522,28 +2522,28 @@
       <c r="AL34" s="2"/>
     </row>
     <row r="35" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -2564,44 +2564,44 @@
       <c r="AL35" s="2"/>
     </row>
     <row r="36" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
     </row>
     <row r="37" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2610,20 +2610,20 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
       <c r="U37" s="2"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -2650,44 +2650,44 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="35" t="s">
+      <c r="M38" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="35" t="s">
+      <c r="V38" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
     </row>
     <row r="39" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -2696,11 +2696,11 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2711,23 +2711,23 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
     </row>
     <row r="40" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -2736,11 +2736,11 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2751,23 +2751,23 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="35"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
@@ -2787,23 +2787,23 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="35"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="Y42" s="12"/>
@@ -2832,37 +2832,56 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="AI31:AL33"/>
-    <mergeCell ref="G33:K37"/>
-    <mergeCell ref="AD31:AG33"/>
-    <mergeCell ref="M31:T33"/>
-    <mergeCell ref="M35:T37"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="G38:K40"/>
-    <mergeCell ref="V38:AL41"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="G28:K30"/>
-    <mergeCell ref="A29:C30"/>
-    <mergeCell ref="V29:AC30"/>
-    <mergeCell ref="M30:T30"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="AC1:AL2"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:W3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AG6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:AG7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:AG8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:AG9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:AG10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:AG12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AG13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:AG14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:AG15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AG16"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="V17:AG17"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="F19:H21"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:T21"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="Z19:AC21"/>
+    <mergeCell ref="AD19:AF21"/>
+    <mergeCell ref="AG19:AK20"/>
+    <mergeCell ref="AL19:AL21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="AG23:AL23"/>
     <mergeCell ref="B24:E24"/>
@@ -2876,56 +2895,37 @@
     <mergeCell ref="AD24:AF24"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="AL19:AL21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="F19:H21"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:T21"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="Z19:AC21"/>
-    <mergeCell ref="AD19:AF21"/>
-    <mergeCell ref="AG19:AK20"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:AG15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AG16"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="V17:AG17"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:AG12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AG13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:AG14"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:AG9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:AG10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AG6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:AG7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:AG8"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="AC1:AL2"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:W3"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="G38:K40"/>
+    <mergeCell ref="V38:AL41"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="G28:K30"/>
+    <mergeCell ref="A29:C30"/>
+    <mergeCell ref="V29:AC30"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="AI31:AL33"/>
+    <mergeCell ref="G33:K37"/>
+    <mergeCell ref="AD31:AG33"/>
+    <mergeCell ref="M31:T33"/>
+    <mergeCell ref="M35:T37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
+++ b/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Приложение №1
 к постановлению Правительства Российской
@@ -317,10 +317,13 @@
     <t>{$v-&gt;reciever-&gt;all}</t>
   </si>
   <si>
-    <t>{$v-&gt;buyer-&gt;company_tax_id} / {$v-&gt;buyer-&gt;company_tax_id2}</t>
-  </si>
-  <si>
     <t>{$v-&gt;tables[0]-&gt;rows[]-&gt;product_vat_rate}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;reciever-&gt;company_tax_id} / {$v-&gt;reciever-&gt;company_tax_id2}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;sell_bill_reference}</t>
   </si>
 </sst>
 </file>
@@ -384,17 +387,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,12 +483,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -508,19 +509,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -533,13 +534,73 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -551,74 +612,23 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,10 +935,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1002,91 +1012,91 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="10"/>
@@ -1106,35 +1116,35 @@
     <row r="4" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="10"/>
@@ -1192,43 +1202,43 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1236,43 +1246,43 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="38" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -1280,43 +1290,43 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="38" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -1324,43 +1334,43 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="38" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -1368,43 +1378,43 @@
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="38" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -1412,43 +1422,43 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="38" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -1456,43 +1466,43 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -1500,43 +1510,43 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="38" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -1544,43 +1554,43 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="38" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -1588,43 +1598,43 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -1632,43 +1642,43 @@
       <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="38" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -1676,41 +1686,41 @@
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -1718,39 +1728,39 @@
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1758,158 +1768,158 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36" t="s">
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="36" t="s">
+      <c r="P19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36" t="s">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36" t="s">
+      <c r="V19" s="20"/>
+      <c r="W19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36" t="s">
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Z19" s="36" t="s">
+      <c r="Z19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36" t="s">
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36" t="s">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36" t="s">
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
     </row>
     <row r="21" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36" t="s">
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
     </row>
     <row r="22" spans="1:38" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1952,13 +1962,13 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1986,81 +1996,81 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="34" t="s">
+      <c r="AG23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
     </row>
     <row r="24" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35" t="s">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="35" t="s">
+      <c r="P24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35" t="s">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35" t="s">
+      <c r="V24" s="23"/>
+      <c r="W24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="X24" s="35"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="35" t="s">
+      <c r="Z24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35" t="s">
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35" t="s">
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35" t="s">
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
       <c r="AL24" s="5" t="s">
         <v>56</v>
       </c>
@@ -2069,115 +2079,115 @@
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23" t="s">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="24" t="s">
+      <c r="V25" s="24"/>
+      <c r="W25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="X25" s="24"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="23" t="s">
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="24" t="s">
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24" t="s">
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
       <c r="AL25" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="22" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="29" t="s">
+      <c r="V26" s="30"/>
+      <c r="W26" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="22" t="s">
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22" t="s">
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -2232,11 +2242,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2266,19 +2276,19 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2289,16 +2299,16 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="21" t="s">
+      <c r="V29" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
@@ -2310,48 +2320,48 @@
       <c r="AL29" s="2"/>
     </row>
     <row r="30" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="20" t="s">
+      <c r="AI30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="35"/>
     </row>
     <row r="31" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -2360,24 +2370,24 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2387,41 +2397,40 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="17" t="s">
+      <c r="AD31" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="17" t="s">
+      <c r="AI31" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-    </row>
-    <row r="32" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+    </row>
+    <row r="32" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -2431,177 +2440,183 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
     </row>
     <row r="34" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
     </row>
     <row r="35" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="G35" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
+      <c r="M35" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
+      <c r="V35" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
     </row>
     <row r="36" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
     </row>
     <row r="37" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2610,200 +2625,89 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="9"/>
-    </row>
-    <row r="38" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-    </row>
-    <row r="39" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-    </row>
-    <row r="40" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="1"/>
+      <c r="AL39"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="1"/>
+      <c r="AL40"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="1"/>
+      <c r="AL41"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="Y42" s="12"/>
@@ -2815,55 +2719,57 @@
       <c r="Z43" s="1"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="1"/>
-      <c r="AL44"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="1"/>
-      <c r="AL45"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="1"/>
-      <c r="AL46"/>
-    </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="AC1:AL2"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:W3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AG6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:AG7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:AG8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:AG9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:AG10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:AG12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AG13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:AG14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:AG15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AG16"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="V17:AG17"/>
+    <mergeCell ref="G35:K37"/>
+    <mergeCell ref="V35:AL38"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="G28:K30"/>
+    <mergeCell ref="A29:C30"/>
+    <mergeCell ref="V29:AC30"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="AI31:AL31"/>
+    <mergeCell ref="G32:K34"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="M32:T34"/>
+    <mergeCell ref="A33:E34"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="AG23:AL23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="AL19:AL21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
     <mergeCell ref="A18:AG18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:E21"/>
@@ -2877,55 +2783,38 @@
     <mergeCell ref="Z19:AC21"/>
     <mergeCell ref="AD19:AF21"/>
     <mergeCell ref="AG19:AK20"/>
-    <mergeCell ref="AL19:AL21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="AG23:AL23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="G38:K40"/>
-    <mergeCell ref="V38:AL41"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="G28:K30"/>
-    <mergeCell ref="A29:C30"/>
-    <mergeCell ref="V29:AC30"/>
-    <mergeCell ref="M30:T30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="AI31:AL33"/>
-    <mergeCell ref="G33:K37"/>
-    <mergeCell ref="AD31:AG33"/>
-    <mergeCell ref="M31:T33"/>
-    <mergeCell ref="M35:T37"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:AG15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AG16"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="V17:AG17"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:AG12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AG13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:AG14"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:AG9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:AG10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AG11"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AG6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:AG7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:AG8"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="AC1:AL2"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
+++ b/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
@@ -541,94 +541,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1012,20 +1012,20 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-    </row>
-    <row r="2" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+    </row>
+    <row r="2" spans="1:38" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="41" t="s">
@@ -1038,40 +1038,40 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1084,19 +1084,19 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="10"/>
@@ -1126,25 +1126,25 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="10"/>
@@ -1202,43 +1202,43 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="42" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1246,43 +1246,43 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="42" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -1290,43 +1290,43 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="42" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -1334,43 +1334,43 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="42" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -1378,43 +1378,43 @@
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="42" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -1422,43 +1422,43 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="45" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -1466,43 +1466,43 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="42" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -1510,43 +1510,43 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="42" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -1554,43 +1554,43 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="42" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -1598,43 +1598,43 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="42" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -1642,43 +1642,43 @@
       <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="42" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -1686,81 +1686,81 @@
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
+    <row r="18" spans="1:38" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1768,158 +1768,158 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20" t="s">
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20" t="s">
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20" t="s">
+      <c r="V19" s="37"/>
+      <c r="W19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20" t="s">
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20" t="s">
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20" t="s">
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
     </row>
     <row r="21" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20" t="s">
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
     </row>
     <row r="22" spans="1:38" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1962,13 +1962,13 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1996,95 +1996,95 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="22" t="s">
+      <c r="AG23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
     </row>
     <row r="24" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="s">
+      <c r="J24" s="36"/>
+      <c r="K24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23" t="s">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23" t="s">
+      <c r="V24" s="36"/>
+      <c r="W24" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="X24" s="23"/>
+      <c r="X24" s="36"/>
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="Z24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23" t="s">
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23" t="s">
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23" t="s">
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
       <c r="AL24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="25" t="s">
         <v>59</v>
       </c>
@@ -2168,26 +2168,26 @@
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
-      <c r="U26" s="30" t="s">
+      <c r="U26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V26" s="30"/>
-      <c r="W26" s="31" t="s">
+      <c r="V26" s="23"/>
+      <c r="W26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="30" t="s">
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30" t="s">
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -2242,11 +2242,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2276,19 +2276,19 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2299,16 +2299,16 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="18" t="s">
+      <c r="V29" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
@@ -2320,48 +2320,48 @@
       <c r="AL29" s="2"/>
     </row>
     <row r="30" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="35" t="s">
+      <c r="AI30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
     </row>
     <row r="31" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -2370,24 +2370,24 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2397,40 +2397,40 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="37" t="s">
+      <c r="AD31" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="37" t="s">
+      <c r="AI31" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
     </row>
     <row r="32" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -2451,28 +2451,28 @@
       <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="13"/>
@@ -2493,26 +2493,26 @@
       <c r="AL33" s="13"/>
     </row>
     <row r="34" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
       <c r="U34" s="2"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -2539,44 +2539,44 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="37" t="s">
+      <c r="V35" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
     </row>
     <row r="36" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -2585,11 +2585,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2600,23 +2600,23 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
     </row>
     <row r="37" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2625,11 +2625,11 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2640,23 +2640,23 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -2676,23 +2676,23 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="Y39" s="12"/>
@@ -2721,6 +2721,86 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="AC1:AL2"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:W3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AG6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:AG7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:AG8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:AG9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:AG10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AG11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:AG12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AG13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:AG14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:AG15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AG16"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="V17:AG17"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="F19:H21"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:T21"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="Z19:AC21"/>
+    <mergeCell ref="AD19:AF21"/>
+    <mergeCell ref="AG19:AK20"/>
+    <mergeCell ref="AL19:AL21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="AG23:AL23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AK25"/>
     <mergeCell ref="G35:K37"/>
     <mergeCell ref="V35:AL38"/>
     <mergeCell ref="M35:P35"/>
@@ -2735,86 +2815,6 @@
     <mergeCell ref="M31:T31"/>
     <mergeCell ref="M32:T34"/>
     <mergeCell ref="A33:E34"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="AG23:AL23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="AL19:AL21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="F19:H21"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:T21"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="Z19:AC21"/>
-    <mergeCell ref="AD19:AF21"/>
-    <mergeCell ref="AG19:AK20"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:AG15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AG16"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="V17:AG17"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:AG12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AG13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:AG14"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:AG9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:AG10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:AG11"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AG6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:AG7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:AG8"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="AC1:AL2"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
+++ b/application/views/rpt/ru/doc/schet-faktura2021-07-01.xlsx
@@ -543,6 +543,78 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -553,82 +625,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -938,7 +938,7 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G32" sqref="G32:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1012,91 +1012,91 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="44" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="10"/>
@@ -1116,35 +1116,35 @@
     <row r="4" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="10"/>
@@ -1161,7 +1161,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1202,43 +1202,43 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="39" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1246,43 +1246,43 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="39" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -1290,43 +1290,43 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="39" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -1334,43 +1334,43 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="39" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -1378,43 +1378,43 @@
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="39" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -1422,43 +1422,43 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="40" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -1466,43 +1466,43 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="39" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -1510,43 +1510,43 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="39" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -1554,43 +1554,43 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="39" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -1598,43 +1598,43 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="39" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -1642,43 +1642,43 @@
       <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="39" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -1686,81 +1686,81 @@
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
+    <row r="18" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -1768,158 +1768,158 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37" t="s">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37" t="s">
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37" t="s">
+      <c r="V19" s="26"/>
+      <c r="W19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37" t="s">
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Z19" s="37" t="s">
+      <c r="Z19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37" t="s">
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37" t="s">
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37" t="s">
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
     </row>
     <row r="21" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37" t="s">
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
     </row>
     <row r="22" spans="1:38" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1962,24 +1962,24 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -1996,81 +1996,81 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="35" t="s">
+      <c r="AG23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
     </row>
     <row r="24" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="36" t="s">
+      <c r="P24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36" t="s">
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36" t="s">
+      <c r="V24" s="28"/>
+      <c r="W24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="X24" s="36"/>
+      <c r="X24" s="28"/>
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="36" t="s">
+      <c r="Z24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36" t="s">
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36" t="s">
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36" t="s">
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
       <c r="AL24" s="5" t="s">
         <v>56</v>
       </c>
@@ -2079,115 +2079,115 @@
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="25" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="P25" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24" t="s">
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25" t="s">
+      <c r="V25" s="29"/>
+      <c r="W25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="X25" s="25"/>
+      <c r="X25" s="30"/>
       <c r="Y25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="24" t="s">
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="25" t="s">
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25" t="s">
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
       <c r="AL25" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="23" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="V26" s="23"/>
-      <c r="W26" s="30" t="s">
+      <c r="V26" s="35"/>
+      <c r="W26" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="23" t="s">
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23" t="s">
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -2242,11 +2242,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2276,19 +2276,19 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2299,16 +2299,16 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="20" t="s">
+      <c r="V29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
@@ -2320,48 +2320,48 @@
       <c r="AL29" s="2"/>
     </row>
     <row r="30" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="21" t="s">
+      <c r="AI30" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
     </row>
     <row r="31" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -2370,24 +2370,24 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2397,19 +2397,19 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="18" t="s">
+      <c r="AD31" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="18" t="s">
+      <c r="AI31" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
     </row>
     <row r="32" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16"/>
@@ -2417,20 +2417,20 @@
       <c r="D32" s="16"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -2451,28 +2451,28 @@
       <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="13"/>
@@ -2493,26 +2493,26 @@
       <c r="AL33" s="13"/>
     </row>
     <row r="34" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
       <c r="U34" s="2"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -2539,44 +2539,44 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="18" t="s">
+      <c r="V35" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -2585,11 +2585,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2600,23 +2600,23 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2625,11 +2625,11 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2640,23 +2640,23 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -2676,23 +2676,23 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="Y39" s="12"/>
@@ -2721,86 +2721,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="AC1:AL2"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:W3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AG6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:AG7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:AG8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:AG9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:AG10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:AG11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:AG12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AG13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:AG14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:AG15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AG16"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="V17:AG17"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="F19:H21"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:T21"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="Z19:AC21"/>
-    <mergeCell ref="AD19:AF21"/>
-    <mergeCell ref="AG19:AK20"/>
-    <mergeCell ref="AL19:AL21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="AG23:AL23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
     <mergeCell ref="G35:K37"/>
     <mergeCell ref="V35:AL38"/>
     <mergeCell ref="M35:P35"/>
@@ -2815,6 +2735,86 @@
     <mergeCell ref="M31:T31"/>
     <mergeCell ref="M32:T34"/>
     <mergeCell ref="A33:E34"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="AG23:AL23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="AL19:AL21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="F19:H21"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:T21"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="Z19:AC21"/>
+    <mergeCell ref="AD19:AF21"/>
+    <mergeCell ref="AG19:AK20"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:AG15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AG16"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="V17:AG17"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:AG12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AG13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:AG14"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:AG9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:AG10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AG11"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AG6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:AG7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:AG8"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="AC1:AL2"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
